--- a/SchrackCounter/PCB/SchrackCounter/bom/SchrackCounter.xlsx
+++ b/SchrackCounter/PCB/SchrackCounter/bom/SchrackCounter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MenMe\GitHub\SchrackProjects\SchrackCounter\PCB\SchrackCounter\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7D0053C7-B345-4D68-AE94-D32D48A6882B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6C731B-90A6-4FD0-9958-C386E3B6B9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{4A963E85-4DE0-42E6-9C41-0B0E9DF7A811}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="208">
   <si>
     <t>Designator</t>
   </si>
@@ -76,15 +76,6 @@
     <t>LED SMD 0805-2012 Metric</t>
   </si>
   <si>
-    <t>D_EXT1,D_EXT2,D_EXT3</t>
-  </si>
-  <si>
-    <t>Conn_01x02_Pin</t>
-  </si>
-  <si>
-    <t>Connector_JST:JST_XH_B2B-XH-A_1x02_P2.50mm_Vertical</t>
-  </si>
-  <si>
     <t>F1</t>
   </si>
   <si>
@@ -94,9 +85,6 @@
     <t>Fuse 0805-2012Metric</t>
   </si>
   <si>
-    <t>https://cz.mouser.com/ProductDetail/Littelfuse/0805L020-16YR?qs=HoCaDK9Nz5e9OjGjdp4q0Q%3D%3D</t>
-  </si>
-  <si>
     <t>J1</t>
   </si>
   <si>
@@ -115,9 +103,6 @@
     <t>Schrack_brd:MICRO_SD_CARD</t>
   </si>
   <si>
-    <t>https://cz.mouser.com/ProductDetail/GCT/MEM2067-02-180-00-A?qs=KUoIvG%2F9IlYTw%2Fcc1GlNJA%3D%3D</t>
-  </si>
-  <si>
     <t>Q1</t>
   </si>
   <si>
@@ -163,12 +148,6 @@
     <t>SW1</t>
   </si>
   <si>
-    <t>SW_SPST</t>
-  </si>
-  <si>
-    <t>SW2,SW3,SW4,SW5,SW6</t>
-  </si>
-  <si>
     <t>SW_Push</t>
   </si>
   <si>
@@ -181,9 +160,6 @@
     <t>Package_TO_SOT_SMD:TO-252-3_TabPin2</t>
   </si>
   <si>
-    <t>http://www.ti.com/lit/ds/symlink/lm1117.pdf</t>
-  </si>
-  <si>
     <t>U2,U4</t>
   </si>
   <si>
@@ -226,30 +202,18 @@
     <t>PCM_Espressif:ESP32-S3-WROOM-1</t>
   </si>
   <si>
-    <t>https://www.espressif.com/sites/default/files/documentation/esp32-s3-wroom-1_wroom-1u_datasheet_en.pdf</t>
-  </si>
-  <si>
     <t>U7</t>
   </si>
   <si>
     <t>USBLC6-2SC6</t>
   </si>
   <si>
-    <t>Package_TO_SOT_SMD:TSOT-23-6_HandSoldering</t>
-  </si>
-  <si>
     <t>U8</t>
   </si>
   <si>
     <t>74HC14</t>
   </si>
   <si>
-    <t>Package_SO:SOIC-14_3.9x8.7mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>http://www.ti.com/lit/gpn/sn74HC14</t>
-  </si>
-  <si>
     <t>A1</t>
   </si>
   <si>
@@ -340,9 +304,6 @@
     <t>Schrack_brd:SOLDER_PADS</t>
   </si>
   <si>
-    <t>https://www.gme.cz/v/1506925/sbh-331-1as-drzak-baterie-3xaa</t>
-  </si>
-  <si>
     <t>BZ1</t>
   </si>
   <si>
@@ -352,9 +313,6 @@
     <t>Schrack_brd:BUZZER_CUI_CPT</t>
   </si>
   <si>
-    <t>https://cz.mouser.com/ProductDetail/CUI-Devices/CPT-1625-80-SMT-TR?qs=P1JMDcb91o43eCFIymFs3Q%3D%3D</t>
-  </si>
-  <si>
     <t>R_LED</t>
   </si>
   <si>
@@ -626,13 +584,73 @@
   </si>
   <si>
     <t>10</t>
+  </si>
+  <si>
+    <t>SW5,SW6</t>
+  </si>
+  <si>
+    <t>JST_XH_B2B-XH-A_1x02_P2.50mm_Vertical</t>
+  </si>
+  <si>
+    <t>Package TO SOT SMD:TSOT-23-6</t>
+  </si>
+  <si>
+    <t>SO:SOIC-14_3.9x8.7mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>Conn_01x02_Pin_M</t>
+  </si>
+  <si>
+    <t>Conn_01x02_Pin_F</t>
+  </si>
+  <si>
+    <t>JST_XH_FEMALE</t>
+  </si>
+  <si>
+    <t>SW1,SW2,SW3,SW4,D_EXT1,D_EXT2,D_EXT3</t>
+  </si>
+  <si>
+    <t>JST-XH Female 2.54 Vertical TME</t>
+  </si>
+  <si>
+    <t>JST-XH Male 2.54 Vertical TME</t>
+  </si>
+  <si>
+    <t>JST-XH Contact TME</t>
+  </si>
+  <si>
+    <t>LOT</t>
+  </si>
+  <si>
+    <t>Contact JST-XH</t>
+  </si>
+  <si>
+    <t>Buzzer 80dB</t>
+  </si>
+  <si>
+    <t>MICRO SD</t>
+  </si>
+  <si>
+    <t>LM1117 3.3V</t>
+  </si>
+  <si>
+    <t>Battery holder 3xAA</t>
+  </si>
+  <si>
+    <t>SN74HC14DRG4</t>
+  </si>
+  <si>
+    <t>PMOS 16V</t>
+  </si>
+  <si>
+    <t>220R, 250mW, 0805 vishay</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -780,6 +798,13 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1176,7 +1201,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1188,9 +1213,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1211,11 +1233,40 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1593,10 +1644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{922EDB62-CB86-4964-8550-0065867A2EA4}">
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="76" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1604,1198 +1655,1259 @@
     <col min="1" max="1" width="40.6328125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="45" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="13"/>
+    <col min="4" max="4" width="8.7265625" style="11"/>
+    <col min="5" max="5" width="29.26953125" style="11" customWidth="1"/>
     <col min="6" max="6" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="11">
+        <v>6</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="11">
+        <v>11</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="11">
+        <v>10</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="11">
+        <v>7</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="11">
+        <v>1</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="11">
+        <v>2</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="11">
+        <v>2</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="11">
+        <v>6</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="E11" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="E12" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="11">
+        <v>1</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="11">
+        <v>1</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="11">
+        <v>1</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="11">
+        <v>2</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="11">
+        <v>1</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="11">
+        <v>1</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="11">
+        <v>1</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="D20" s="11">
+        <v>1</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="D21" s="11">
+        <v>1</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="11">
+        <v>1</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="11">
+        <v>1</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24" s="11">
+        <v>1</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="11">
+        <v>1</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="F25" s="14"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="B26" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="D26" s="11">
+        <v>7</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="22"/>
+      <c r="B27" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="D27" s="11">
+        <v>7</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="22"/>
+      <c r="B28" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="C28" s="22"/>
+      <c r="D28" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D29" s="11">
+        <v>2</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="D41" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="6">
+        <v>4</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="6">
+        <v>1</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="6">
+        <v>2</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="6">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D45" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="13">
+      <c r="F45" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="6">
+        <v>11</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="6">
+        <v>5</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C48" s="6">
+        <v>2</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="6">
+        <v>4</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="10"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="6"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="6"/>
+      <c r="F50" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="13">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="6"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="6"/>
+      <c r="F51" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="6"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="6"/>
+      <c r="F52" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="6">
+        <v>1</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" s="6">
+        <v>1</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="13">
+      <c r="D55" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" s="6">
+        <v>1</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="F56" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C57" s="6">
+        <v>2</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="F57" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="6">
+        <v>1</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F58" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" s="6">
+        <v>3</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="F59" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="13">
+      <c r="D60" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="F60" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" s="6">
+        <v>1</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="F61" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" s="6">
+        <v>1</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" s="6">
+        <v>1</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F63" s="8"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" s="6">
+        <v>2</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="F64" s="10"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C65" s="6">
+        <v>7</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" s="6">
+        <v>4</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F66" s="10"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C67" s="6">
+        <v>2</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C68" s="6">
+        <v>1</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69" s="6">
+        <v>4</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" s="6">
+        <v>1</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="F70" s="10"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71" s="6">
+        <v>1</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F71" s="10"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C72" s="6">
+        <v>1</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="F72" s="6"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C73" s="6">
+        <v>4</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F73" s="6"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C74" s="6">
+        <v>1</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="F74" s="6"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C75" s="6">
+        <v>1</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F75" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C76" s="6">
+        <v>1</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F76" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C77" s="6">
+        <v>1</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="F77" s="6"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" s="6"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="13">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="13">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="13">
+      <c r="D78" s="6"/>
+      <c r="E78" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="F78" s="6"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" s="6"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="13">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="13">
-        <v>1</v>
-      </c>
-      <c r="F22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="13">
-        <v>1</v>
-      </c>
-      <c r="F23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C24" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="13">
-        <v>1</v>
-      </c>
-      <c r="F24" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" t="s">
-        <v>73</v>
-      </c>
-      <c r="C26" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" s="13">
-        <v>1</v>
-      </c>
-      <c r="F26" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>103</v>
-      </c>
-      <c r="B27" t="s">
-        <v>104</v>
-      </c>
-      <c r="C27" t="s">
-        <v>105</v>
-      </c>
-      <c r="D27" s="13">
-        <v>1</v>
-      </c>
-      <c r="F27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>107</v>
-      </c>
-      <c r="B28" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28" t="s">
-        <v>109</v>
-      </c>
-      <c r="D28" s="13">
-        <v>1</v>
-      </c>
-      <c r="F28" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="7">
-        <v>4</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="7">
-        <v>1</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C34" s="7">
-        <v>2</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F34" s="7"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" s="7">
+      <c r="D79" s="6"/>
+      <c r="E79" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="F79" s="6"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="6"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="6">
         <v>6</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F35" s="7">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C36" s="7">
-        <v>11</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F36" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" s="7">
-        <v>5</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C38" s="7">
-        <v>2</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="9" t="s">
+      <c r="D80" s="6"/>
+      <c r="E80" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F80" s="6"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="6"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="6">
         <v>100</v>
       </c>
-      <c r="F38" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C39" s="7">
-        <v>4</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" s="7"/>
-      <c r="F39" s="11"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="7"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="F40" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="7"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="F41" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="7"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F42" s="10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C43" s="7">
-        <v>1</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="F43" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C44" s="7">
-        <v>1</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="F44" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C45" s="7">
-        <v>2</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="F45" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C46" s="7">
-        <v>1</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="F46" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C47" s="7">
-        <v>2</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="F47" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C48" s="7">
-        <v>1</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="F48" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C49" s="7">
-        <v>3</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="F49" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C50" s="7">
-        <v>6</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F50" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C51" s="7">
-        <v>1</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="F51" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C52" s="7">
-        <v>1</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="F52" s="7"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C53" s="7">
-        <v>1</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F53" s="9"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C54" s="7">
-        <v>2</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="F54" s="11"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C55" s="7">
-        <v>7</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C56" s="7">
-        <v>4</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="F56" s="11"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C57" s="7">
-        <v>2</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C58" s="7">
-        <v>1</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="F58" s="10" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C59" s="7">
-        <v>4</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C60" s="7">
-        <v>1</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="F60" s="11"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C61" s="7">
-        <v>1</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="F61" s="11"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C62" s="7">
-        <v>1</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="F62" s="7"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C63" s="7">
-        <v>4</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="F63" s="7"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B64" s="8" t="s">
+      <c r="D81" s="6"/>
+      <c r="E81" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="C64" s="7">
-        <v>1</v>
-      </c>
-      <c r="D64" s="7" t="s">
+      <c r="F81" s="6"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="6"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="E64" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F64" s="7"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C65" s="7">
-        <v>1</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="F65" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C66" s="7">
-        <v>1</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="F66" s="7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="C67" s="7">
-        <v>1</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="F67" s="7"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" s="7"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="7">
-        <v>3</v>
-      </c>
-      <c r="D68" s="7"/>
-      <c r="E68" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="F68" s="7"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="7"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="7">
-        <v>2</v>
-      </c>
-      <c r="D69" s="7"/>
-      <c r="E69" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="F69" s="7"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" s="7"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="7">
-        <v>6</v>
-      </c>
-      <c r="D70" s="7"/>
-      <c r="E70" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F70" s="7"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" s="7"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="7">
-        <v>100</v>
-      </c>
-      <c r="D71" s="7"/>
-      <c r="E71" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="F71" s="7"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" s="7"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="F72" s="7"/>
+      <c r="F82" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E63" r:id="rId1" xr:uid="{4F595682-846F-4580-82DE-A080827CE8E8}"/>
-    <hyperlink ref="E67" r:id="rId2" xr:uid="{06732AAD-276F-44B9-B238-F791FB15093F}"/>
-    <hyperlink ref="E38" r:id="rId3" xr:uid="{BFA0B7A9-121A-4B7F-8023-59690A51CD90}"/>
-    <hyperlink ref="E53" r:id="rId4" xr:uid="{4936656A-973F-4FA9-A888-809ABF9AEF0F}"/>
-    <hyperlink ref="E52" r:id="rId5" xr:uid="{FBF98AFE-B379-4A40-BE27-8F07A2BC54EF}"/>
-    <hyperlink ref="E37" r:id="rId6" display="22uF, 0805 " xr:uid="{F4102131-01ED-400F-ACC6-90FACA16421D}"/>
-    <hyperlink ref="E45" r:id="rId7" display="DRV8874.  mouser" xr:uid="{47FAD120-E407-426C-B9DD-F556DC866FE9}"/>
-    <hyperlink ref="E44" r:id="rId8" xr:uid="{400243B5-E883-4223-8759-F65C1C9A6EF9}"/>
-    <hyperlink ref="E36" r:id="rId9" display="100nF, 16V, 0805, ceramic, mouser X7R" xr:uid="{EE54C0DD-C857-4D50-804B-5D99CFA0F3D6}"/>
-    <hyperlink ref="E34" r:id="rId10" display="22nF, 50V, 0805, mouser, X7R" xr:uid="{FD22E2B8-1646-475E-AE99-57F610EF5DD0}"/>
-    <hyperlink ref="E64" r:id="rId11" display="TPS62133 5V" xr:uid="{57224C5C-A64F-4A9D-8822-94A57B891176}"/>
-    <hyperlink ref="E35" r:id="rId12" display="10uF, 16V, 1206, tantal, mouser" xr:uid="{A8489B4D-0D7A-4EB2-9BCB-C6A99EC3420A}"/>
-    <hyperlink ref="E47" r:id="rId13" xr:uid="{5D18FCA2-399D-426C-BEB7-AD7F2401CB05}"/>
-    <hyperlink ref="E46" r:id="rId14" xr:uid="{3C9363B0-BF9F-43FF-B28E-65DC981EEE9D}"/>
-    <hyperlink ref="E55" r:id="rId15" display="10k mouser" xr:uid="{D99CDCF4-0221-40E7-99D4-B8BD637E4DA7}"/>
-    <hyperlink ref="E56" r:id="rId16" display="0R. 250mW, 0805" xr:uid="{B42B5C1A-82E9-4515-A981-FB68D37BBBB5}"/>
-    <hyperlink ref="E61" r:id="rId17" display="100k, 250mW, 0805" xr:uid="{03171E7C-3F77-41B1-ACBD-B0D833E1F97B}"/>
-    <hyperlink ref="E59" r:id="rId18" display="100R, 250mW, 0805" xr:uid="{37659600-3B1F-4AE8-87DA-E786DAC40251}"/>
-    <hyperlink ref="E57" r:id="rId19" display="15R mouser" xr:uid="{ABDE5330-A804-4BC1-9574-CE7A91ED488D}"/>
-    <hyperlink ref="E58" r:id="rId20" display="560R, 500mW, 0805, mouser" xr:uid="{F0E4FC3E-5C67-4183-B90E-C14317897823}"/>
-    <hyperlink ref="E33" r:id="rId21" xr:uid="{DFAC0E95-B1B5-410A-AFBD-4C7822B929B9}"/>
-    <hyperlink ref="E42" r:id="rId22" display="Red LED, 20mA 1.9V, 0805, mouser" xr:uid="{018F3B62-15B6-474E-94C4-8C97A6E78D04}"/>
-    <hyperlink ref="E40" r:id="rId23" display="Yellow LED, 20mA, 1.9V, 0805, mouser" xr:uid="{F59B35F0-225F-4157-9C6F-0CFE8857859C}"/>
-    <hyperlink ref="E41" r:id="rId24" display="Green-Yellow LED, 20mA, 1.9V, mouser" xr:uid="{47894E2A-5134-4E24-A8A3-574292B95807}"/>
-    <hyperlink ref="E60" r:id="rId25" xr:uid="{125E3F54-0621-45C1-82B9-E5C66691778E}"/>
-    <hyperlink ref="E32" r:id="rId26" xr:uid="{19FA78C8-A331-4B0F-8C1D-8E3ECB0D9724}"/>
-    <hyperlink ref="E43" r:id="rId27" display="Polyfuse, Itrip: 500mA, 16V" xr:uid="{972CAB3D-567E-4AFD-8731-4908C67AC004}"/>
-    <hyperlink ref="E62" r:id="rId28" xr:uid="{A72581EB-32C2-4DD4-9618-F65229DCC794}"/>
-    <hyperlink ref="E65" r:id="rId29" xr:uid="{A6193EAC-F5F3-4428-A68C-8B186E2830F1}"/>
-    <hyperlink ref="E54" r:id="rId30" xr:uid="{19F1EF30-41D9-41AD-B3A8-8B459FF90213}"/>
-    <hyperlink ref="E49" r:id="rId31" xr:uid="{3187DB93-30E5-4F9B-AA9B-EF75D68098BB}"/>
-    <hyperlink ref="E50" r:id="rId32" xr:uid="{089A162E-0D94-4A7C-B6BC-1E182B411F5B}"/>
-    <hyperlink ref="E51" r:id="rId33" xr:uid="{EA5F9B03-4F30-4511-AABA-8E1D17F3C5BD}"/>
-    <hyperlink ref="E48" r:id="rId34" xr:uid="{E2B2ADE6-6DB2-47D3-BA8B-18CCD934C755}"/>
-    <hyperlink ref="E69" r:id="rId35" display="MolexPicoblade" xr:uid="{18ED0DAD-6B40-402C-A9D9-C3A130B64C44}"/>
-    <hyperlink ref="E71" r:id="rId36" xr:uid="{78716A8F-7FDF-41D8-A286-DFC6BF2ABB9B}"/>
-    <hyperlink ref="E70" r:id="rId37" xr:uid="{27BA2D2A-F76F-406C-92D9-2D220FB03617}"/>
-    <hyperlink ref="E68" r:id="rId38" xr:uid="{1D8B6A9A-C312-4406-8DA4-990A50A02621}"/>
-    <hyperlink ref="E72" r:id="rId39" xr:uid="{BC162D01-E516-49A9-9801-117219A7082C}"/>
+    <hyperlink ref="E29" r:id="rId1" xr:uid="{4F595682-846F-4580-82DE-A080827CE8E8}"/>
+    <hyperlink ref="E77" r:id="rId2" xr:uid="{06732AAD-276F-44B9-B238-F791FB15093F}"/>
+    <hyperlink ref="E9" r:id="rId3" xr:uid="{BFA0B7A9-121A-4B7F-8023-59690A51CD90}"/>
+    <hyperlink ref="E63" r:id="rId4" xr:uid="{4936656A-973F-4FA9-A888-809ABF9AEF0F}"/>
+    <hyperlink ref="E62" r:id="rId5" xr:uid="{FBF98AFE-B379-4A40-BE27-8F07A2BC54EF}"/>
+    <hyperlink ref="E47" r:id="rId6" display="22uF, 0805 " xr:uid="{F4102131-01ED-400F-ACC6-90FACA16421D}"/>
+    <hyperlink ref="E55" r:id="rId7" display="DRV8874.  mouser" xr:uid="{47FAD120-E407-426C-B9DD-F556DC866FE9}"/>
+    <hyperlink ref="E54" r:id="rId8" xr:uid="{400243B5-E883-4223-8759-F65C1C9A6EF9}"/>
+    <hyperlink ref="E3" r:id="rId9" display="100nF, 16V, 0805, ceramic, mouser X7R" xr:uid="{EE54C0DD-C857-4D50-804B-5D99CFA0F3D6}"/>
+    <hyperlink ref="E44" r:id="rId10" display="22nF, 50V, 0805, mouser, X7R" xr:uid="{FD22E2B8-1646-475E-AE99-57F610EF5DD0}"/>
+    <hyperlink ref="E74" r:id="rId11" display="TPS62133 5V" xr:uid="{57224C5C-A64F-4A9D-8822-94A57B891176}"/>
+    <hyperlink ref="E2" r:id="rId12" display="10uF, 16V, 1206, tantal, mouser" xr:uid="{A8489B4D-0D7A-4EB2-9BCB-C6A99EC3420A}"/>
+    <hyperlink ref="E57" r:id="rId13" xr:uid="{5D18FCA2-399D-426C-BEB7-AD7F2401CB05}"/>
+    <hyperlink ref="E56" r:id="rId14" xr:uid="{3C9363B0-BF9F-43FF-B28E-65DC981EEE9D}"/>
+    <hyperlink ref="E4" r:id="rId15" display="10k mouser" xr:uid="{D99CDCF4-0221-40E7-99D4-B8BD637E4DA7}"/>
+    <hyperlink ref="E7" r:id="rId16" display="0R. 250mW, 0805" xr:uid="{B42B5C1A-82E9-4515-A981-FB68D37BBBB5}"/>
+    <hyperlink ref="E6" r:id="rId17" display="100k, 250mW, 0805" xr:uid="{03171E7C-3F77-41B1-ACBD-B0D833E1F97B}"/>
+    <hyperlink ref="E69" r:id="rId18" display="100R, 250mW, 0805" xr:uid="{37659600-3B1F-4AE8-87DA-E786DAC40251}"/>
+    <hyperlink ref="E8" r:id="rId19" display="15R mouser" xr:uid="{ABDE5330-A804-4BC1-9574-CE7A91ED488D}"/>
+    <hyperlink ref="E68" r:id="rId20" display="560R, 500mW, 0805, mouser" xr:uid="{F0E4FC3E-5C67-4183-B90E-C14317897823}"/>
+    <hyperlink ref="E43" r:id="rId21" xr:uid="{DFAC0E95-B1B5-410A-AFBD-4C7822B929B9}"/>
+    <hyperlink ref="E10" r:id="rId22" display="Red LED, 20mA 1.9V, 0805, mouser" xr:uid="{018F3B62-15B6-474E-94C4-8C97A6E78D04}"/>
+    <hyperlink ref="E11" r:id="rId23" display="Yellow LED, 20mA, 1.9V, 0805, mouser" xr:uid="{F59B35F0-225F-4157-9C6F-0CFE8857859C}"/>
+    <hyperlink ref="E12" r:id="rId24" display="Green-Yellow LED, 20mA, 1.9V, mouser" xr:uid="{47894E2A-5134-4E24-A8A3-574292B95807}"/>
+    <hyperlink ref="E70" r:id="rId25" xr:uid="{125E3F54-0621-45C1-82B9-E5C66691778E}"/>
+    <hyperlink ref="E42" r:id="rId26" xr:uid="{19FA78C8-A331-4B0F-8C1D-8E3ECB0D9724}"/>
+    <hyperlink ref="E23" r:id="rId27" display="Polyfuse, Itrip: 500mA, 16V" xr:uid="{972CAB3D-567E-4AFD-8731-4908C67AC004}"/>
+    <hyperlink ref="E72" r:id="rId28" xr:uid="{A72581EB-32C2-4DD4-9618-F65229DCC794}"/>
+    <hyperlink ref="E19" r:id="rId29" xr:uid="{A6193EAC-F5F3-4428-A68C-8B186E2830F1}"/>
+    <hyperlink ref="E64" r:id="rId30" xr:uid="{19F1EF30-41D9-41AD-B3A8-8B459FF90213}"/>
+    <hyperlink ref="E59" r:id="rId31" xr:uid="{3187DB93-30E5-4F9B-AA9B-EF75D68098BB}"/>
+    <hyperlink ref="E60" r:id="rId32" xr:uid="{089A162E-0D94-4A7C-B6BC-1E182B411F5B}"/>
+    <hyperlink ref="E61" r:id="rId33" xr:uid="{EA5F9B03-4F30-4511-AABA-8E1D17F3C5BD}"/>
+    <hyperlink ref="E13" r:id="rId34" xr:uid="{E2B2ADE6-6DB2-47D3-BA8B-18CCD934C755}"/>
+    <hyperlink ref="E79" r:id="rId35" display="MolexPicoblade" xr:uid="{18ED0DAD-6B40-402C-A9D9-C3A130B64C44}"/>
+    <hyperlink ref="E81" r:id="rId36" xr:uid="{78716A8F-7FDF-41D8-A286-DFC6BF2ABB9B}"/>
+    <hyperlink ref="E80" r:id="rId37" xr:uid="{27BA2D2A-F76F-406C-92D9-2D220FB03617}"/>
+    <hyperlink ref="E78" r:id="rId38" xr:uid="{1D8B6A9A-C312-4406-8DA4-990A50A02621}"/>
+    <hyperlink ref="E82" r:id="rId39" xr:uid="{BC162D01-E516-49A9-9801-117219A7082C}"/>
+    <hyperlink ref="E26" r:id="rId40" display="JST XH MALE" xr:uid="{CCE0D797-0318-4823-A1C9-A2D5199B9FF1}"/>
+    <hyperlink ref="E27" r:id="rId41" xr:uid="{8483FEF6-DFB9-4186-B95C-790A0D5FB93F}"/>
+    <hyperlink ref="E28" r:id="rId42" xr:uid="{B57A2B2B-7A8A-4188-A75D-58905C584A07}"/>
+    <hyperlink ref="E25" r:id="rId43" xr:uid="{6AB6A2DC-3370-4DAE-BAA5-AB0EF8EBD0A7}"/>
+    <hyperlink ref="E14" r:id="rId44" xr:uid="{C91F4D00-C4F5-410A-8BC1-9A23E9DC7CFA}"/>
+    <hyperlink ref="E15" r:id="rId45" xr:uid="{97D5F1DE-7AC9-4DB7-B161-800C47A7C59C}"/>
+    <hyperlink ref="E24" r:id="rId46" xr:uid="{08D83CA7-07B8-4C5F-86A8-BCA2BD2F4632}"/>
+    <hyperlink ref="E21" r:id="rId47" xr:uid="{F649C6EC-8AC1-4569-BD1C-B2A7749CFAD0}"/>
+    <hyperlink ref="E22" r:id="rId48" xr:uid="{47E5CDF1-55F3-43E3-94A0-B0C90824B5DC}"/>
+    <hyperlink ref="E5" r:id="rId49" display="220R 250mW" xr:uid="{BF99DB16-A003-4DAB-B588-CDF34CB14A94}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
